--- a/Brasil/ETTJ/Base_LTN.xlsx
+++ b/Brasil/ETTJ/Base_LTN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alysson\Documents\GitHub\Monetary-Shocks\Brasil\ETTJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD96A779-A40B-4F4B-A67C-0DE36570F0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF610EB0-663A-41B9-ACAB-7EAFA3E5524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4FFB3A72-7E5A-425C-A530-276691D45DF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FFB3A72-7E5A-425C-A530-276691D45DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="6">
   <si>
     <t>CODIGO</t>
   </si>
@@ -58,6 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,9 +98,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,29 +415,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7EEB43-1106-48E4-B367-61118A60546E}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -448,16 +451,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>45110</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>45200</v>
       </c>
       <c r="D2">
         <v>13.202500000000001</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>968.99666200000001</v>
       </c>
     </row>
@@ -465,16 +468,16 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>45110</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>45292</v>
       </c>
       <c r="D3">
         <v>12.7468</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>942.22505899999999</v>
       </c>
     </row>
@@ -482,16 +485,16 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>45110</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>45383</v>
       </c>
       <c r="D4">
         <v>12.164199999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>918.76153699999998</v>
       </c>
     </row>
@@ -499,16 +502,16 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>45110</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>45474</v>
       </c>
       <c r="D5">
         <v>11.5298</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>897.786879</v>
       </c>
     </row>
@@ -516,16 +519,16 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>45110</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>45566</v>
       </c>
       <c r="D6">
         <v>11.023199999999999</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>877.47110399999997</v>
       </c>
     </row>
@@ -533,16 +536,16 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>45110</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>45658</v>
       </c>
       <c r="D7">
         <v>10.6656</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>858.63063999999997</v>
       </c>
     </row>
@@ -550,16 +553,16 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>45110</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>45748</v>
       </c>
       <c r="D8">
         <v>10.4497</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>840.68508299999996</v>
       </c>
     </row>
@@ -567,16 +570,16 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>45110</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>45839</v>
       </c>
       <c r="D9">
         <v>10.274699999999999</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>823.29200000000003</v>
       </c>
     </row>
@@ -584,16 +587,16 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>45110</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>46023</v>
       </c>
       <c r="D10">
         <v>10.074299999999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>786.05752199999995</v>
       </c>
     </row>
@@ -601,16 +604,16 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>45110</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>46204</v>
       </c>
       <c r="D11">
         <v>10.0886</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>750.07422499999996</v>
       </c>
     </row>
@@ -618,10 +621,10 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>45111</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>45200</v>
       </c>
       <c r="D12">
@@ -635,10 +638,10 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>45111</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>45292</v>
       </c>
       <c r="D13">
@@ -652,10 +655,10 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>45111</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>45383</v>
       </c>
       <c r="D14">
@@ -669,10 +672,10 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>45111</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>45474</v>
       </c>
       <c r="D15">
@@ -686,10 +689,10 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>45111</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>45566</v>
       </c>
       <c r="D16">
@@ -703,10 +706,10 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>45111</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>45658</v>
       </c>
       <c r="D17">
@@ -720,10 +723,10 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>45111</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>45748</v>
       </c>
       <c r="D18">
@@ -737,10 +740,10 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>45111</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>45839</v>
       </c>
       <c r="D19">
@@ -754,10 +757,10 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>45111</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>46023</v>
       </c>
       <c r="D20">
@@ -771,10 +774,10 @@
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>45111</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>46204</v>
       </c>
       <c r="D21">
@@ -788,10 +791,10 @@
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>45112</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>45200</v>
       </c>
       <c r="D22">
@@ -805,10 +808,10 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>45112</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>45292</v>
       </c>
       <c r="D23">
@@ -822,10 +825,10 @@
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>45112</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>45383</v>
       </c>
       <c r="D24">
@@ -839,10 +842,10 @@
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>45112</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>45474</v>
       </c>
       <c r="D25">
@@ -856,10 +859,10 @@
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>45112</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>45566</v>
       </c>
       <c r="D26">
@@ -873,10 +876,10 @@
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>45112</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>45658</v>
       </c>
       <c r="D27">
@@ -890,10 +893,10 @@
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>45112</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>45748</v>
       </c>
       <c r="D28">
@@ -907,10 +910,10 @@
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>45112</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>45839</v>
       </c>
       <c r="D29">
@@ -924,10 +927,10 @@
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>45112</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>46023</v>
       </c>
       <c r="D30">
@@ -941,10 +944,10 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>45112</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>46204</v>
       </c>
       <c r="D31">
@@ -952,6 +955,3644 @@
       </c>
       <c r="E31">
         <v>746.62614599999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D32">
+        <v>13.2111</v>
+      </c>
+      <c r="E32">
+        <v>970.41039000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D33">
+        <v>12.839</v>
+      </c>
+      <c r="E33">
+        <v>943.19843500000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D34">
+        <v>12.284000000000001</v>
+      </c>
+      <c r="E34">
+        <v>919.30503299999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D35">
+        <v>11.692299999999999</v>
+      </c>
+      <c r="E35">
+        <v>897.67716099999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D36">
+        <v>11.183999999999999</v>
+      </c>
+      <c r="E36">
+        <v>876.99123799999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D37">
+        <v>10.8392</v>
+      </c>
+      <c r="E37">
+        <v>857.65897199999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D38">
+        <v>10.6462</v>
+      </c>
+      <c r="E38">
+        <v>839.08995900000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D39">
+        <v>10.483000000000001</v>
+      </c>
+      <c r="E39">
+        <v>821.18295699999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C40" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D40">
+        <v>10.328099999999999</v>
+      </c>
+      <c r="E40">
+        <v>782.44539999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45113</v>
+      </c>
+      <c r="C41" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D41">
+        <v>10.369300000000001</v>
+      </c>
+      <c r="E41">
+        <v>745.25568899999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D42">
+        <v>13.1968</v>
+      </c>
+      <c r="E42">
+        <v>970.91753600000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D43">
+        <v>12.779299999999999</v>
+      </c>
+      <c r="E43">
+        <v>943.89046699999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D44">
+        <v>12.2</v>
+      </c>
+      <c r="E44">
+        <v>920.22504200000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D45">
+        <v>11.59</v>
+      </c>
+      <c r="E45">
+        <v>898.87157400000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D46">
+        <v>11.067</v>
+      </c>
+      <c r="E46">
+        <v>878.50102000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D47">
+        <v>10.702500000000001</v>
+      </c>
+      <c r="E47">
+        <v>859.586409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D48">
+        <v>10.4992</v>
+      </c>
+      <c r="E48">
+        <v>841.35991300000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D49">
+        <v>10.332000000000001</v>
+      </c>
+      <c r="E49">
+        <v>823.72675200000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D50">
+        <v>10.2453</v>
+      </c>
+      <c r="E50">
+        <v>804.19652799999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C51" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D51">
+        <v>10.163</v>
+      </c>
+      <c r="E51">
+        <v>785.67734599999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C52" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D52">
+        <v>10.195600000000001</v>
+      </c>
+      <c r="E52">
+        <v>749.05058699999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C53" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D53">
+        <v>10.370200000000001</v>
+      </c>
+      <c r="E53">
+        <v>675.74526300000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D54">
+        <v>13.196300000000001</v>
+      </c>
+      <c r="E54">
+        <v>971.39624800000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D55">
+        <v>12.8178</v>
+      </c>
+      <c r="E55">
+        <v>944.18755699999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D56">
+        <v>12.2447</v>
+      </c>
+      <c r="E56">
+        <v>920.38214200000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D57">
+        <v>11.6486</v>
+      </c>
+      <c r="E57">
+        <v>898.80580699999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D58">
+        <v>11.125</v>
+      </c>
+      <c r="E58">
+        <v>878.30275700000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D59">
+        <v>10.7575</v>
+      </c>
+      <c r="E59">
+        <v>859.29961800000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D60">
+        <v>10.5524</v>
+      </c>
+      <c r="E60">
+        <v>840.99425799999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D61">
+        <v>10.3886</v>
+      </c>
+      <c r="E61">
+        <v>823.21679600000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D62">
+        <v>10.2972</v>
+      </c>
+      <c r="E62">
+        <v>803.66385500000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C63" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D63">
+        <v>10.2188</v>
+      </c>
+      <c r="E63">
+        <v>784.98950000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C64" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D64">
+        <v>10.2485</v>
+      </c>
+      <c r="E64">
+        <v>748.27106300000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C65" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D65">
+        <v>10.4148</v>
+      </c>
+      <c r="E65">
+        <v>674.92697299999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D66">
+        <v>13.2135</v>
+      </c>
+      <c r="E66">
+        <v>971.84018900000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D67">
+        <v>12.839399999999999</v>
+      </c>
+      <c r="E67">
+        <v>944.55414699999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D68">
+        <v>12.274699999999999</v>
+      </c>
+      <c r="E68">
+        <v>920.62837100000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D69">
+        <v>11.675700000000001</v>
+      </c>
+      <c r="E69">
+        <v>898.98847999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D70">
+        <v>11.151999999999999</v>
+      </c>
+      <c r="E70">
+        <v>878.40877699999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D71">
+        <v>10.776</v>
+      </c>
+      <c r="E71">
+        <v>859.43560100000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D72">
+        <v>10.564299999999999</v>
+      </c>
+      <c r="E72">
+        <v>841.17317400000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D73">
+        <v>10.382</v>
+      </c>
+      <c r="E73">
+        <v>823.63645899999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D74">
+        <v>10.287100000000001</v>
+      </c>
+      <c r="E74">
+        <v>804.14039600000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C75" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D75">
+        <v>10.2035</v>
+      </c>
+      <c r="E75">
+        <v>785.56350399999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C76" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D76">
+        <v>10.228199999999999</v>
+      </c>
+      <c r="E76">
+        <v>748.97009800000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45118</v>
+      </c>
+      <c r="C77" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D77">
+        <v>10.385999999999999</v>
+      </c>
+      <c r="E77">
+        <v>675.89098999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D78">
+        <v>13.2004</v>
+      </c>
+      <c r="E78">
+        <v>972.34437000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D79">
+        <v>12.833299999999999</v>
+      </c>
+      <c r="E79">
+        <v>945.03094699999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D80">
+        <v>12.2791</v>
+      </c>
+      <c r="E80">
+        <v>921.025802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D81">
+        <v>11.682600000000001</v>
+      </c>
+      <c r="E81">
+        <v>899.32915100000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D82">
+        <v>11.150600000000001</v>
+      </c>
+      <c r="E82">
+        <v>878.79092500000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D83">
+        <v>10.7791</v>
+      </c>
+      <c r="E83">
+        <v>859.74918100000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D84">
+        <v>10.5703</v>
+      </c>
+      <c r="E84">
+        <v>841.43000500000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D85">
+        <v>10.393000000000001</v>
+      </c>
+      <c r="E85">
+        <v>823.79842499999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D86">
+        <v>10.2967</v>
+      </c>
+      <c r="E86">
+        <v>804.297325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C87" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D87">
+        <v>10.2066</v>
+      </c>
+      <c r="E87">
+        <v>785.81161199999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C88" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D88">
+        <v>10.2181</v>
+      </c>
+      <c r="E88">
+        <v>749.46312899999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45119</v>
+      </c>
+      <c r="C89" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D89">
+        <v>10.364000000000001</v>
+      </c>
+      <c r="E89">
+        <v>676.69001900000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D90">
+        <v>13.2197</v>
+      </c>
+      <c r="E90">
+        <v>972.78604800000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D91">
+        <v>12.8299</v>
+      </c>
+      <c r="E91">
+        <v>945.49707799999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D92">
+        <v>12.298999999999999</v>
+      </c>
+      <c r="E92">
+        <v>921.33385599999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D93">
+        <v>11.7235</v>
+      </c>
+      <c r="E93">
+        <v>899.40855499999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D94">
+        <v>11.2066</v>
+      </c>
+      <c r="E94">
+        <v>878.62035100000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D95">
+        <v>10.831</v>
+      </c>
+      <c r="E95">
+        <v>859.50560399999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D96">
+        <v>10.6455</v>
+      </c>
+      <c r="E96">
+        <v>840.78506800000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D97">
+        <v>10.477399999999999</v>
+      </c>
+      <c r="E97">
+        <v>822.89046499999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D98">
+        <v>10.385400000000001</v>
+      </c>
+      <c r="E98">
+        <v>803.17668600000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C99" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D99">
+        <v>10.303000000000001</v>
+      </c>
+      <c r="E99">
+        <v>784.41460700000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C100" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D100">
+        <v>10.315099999999999</v>
+      </c>
+      <c r="E100">
+        <v>747.80260599999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45120</v>
+      </c>
+      <c r="C101" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D101">
+        <v>10.461</v>
+      </c>
+      <c r="E101">
+        <v>674.60603700000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D102">
+        <v>13.289400000000001</v>
+      </c>
+      <c r="E102">
+        <v>973.13473599999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D103">
+        <v>12.8461</v>
+      </c>
+      <c r="E103">
+        <v>945.88757899999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D104">
+        <v>12.321</v>
+      </c>
+      <c r="E104">
+        <v>921.63122799999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D105">
+        <v>11.7483</v>
+      </c>
+      <c r="E105">
+        <v>899.61411599999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D106">
+        <v>11.2498</v>
+      </c>
+      <c r="E106">
+        <v>878.576323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D107">
+        <v>10.885999999999999</v>
+      </c>
+      <c r="E107">
+        <v>859.23029499999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D108">
+        <v>10.710599999999999</v>
+      </c>
+      <c r="E108">
+        <v>840.27691400000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C109" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D109">
+        <v>10.558400000000001</v>
+      </c>
+      <c r="E109">
+        <v>822.03878199999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D110">
+        <v>10.475</v>
+      </c>
+      <c r="E110">
+        <v>802.04940299999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C111" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D111">
+        <v>10.398</v>
+      </c>
+      <c r="E111">
+        <v>783.05154800000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C112" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D112">
+        <v>10.4163</v>
+      </c>
+      <c r="E112">
+        <v>746.06877199999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C113" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D113">
+        <v>10.557600000000001</v>
+      </c>
+      <c r="E113">
+        <v>672.54482900000005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D114">
+        <v>13.284000000000001</v>
+      </c>
+      <c r="E114">
+        <v>973.62663899999995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D115">
+        <v>12.8</v>
+      </c>
+      <c r="E115">
+        <v>946.51779599999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D116">
+        <v>12.255000000000001</v>
+      </c>
+      <c r="E116">
+        <v>922.43485599999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D117">
+        <v>11.675800000000001</v>
+      </c>
+      <c r="E117">
+        <v>900.56488000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D118">
+        <v>11.162100000000001</v>
+      </c>
+      <c r="E118">
+        <v>879.78742799999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D119">
+        <v>10.7906</v>
+      </c>
+      <c r="E119">
+        <v>860.66673600000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D120">
+        <v>10.6159</v>
+      </c>
+      <c r="E120">
+        <v>841.84463000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D121">
+        <v>10.465999999999999</v>
+      </c>
+      <c r="E121">
+        <v>823.70706600000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D122">
+        <v>10.394</v>
+      </c>
+      <c r="E122">
+        <v>803.66837299999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C123" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D123">
+        <v>10.324</v>
+      </c>
+      <c r="E123">
+        <v>784.65654900000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C124" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D124">
+        <v>10.3527</v>
+      </c>
+      <c r="E124">
+        <v>747.63288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C125" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D125">
+        <v>10.5078</v>
+      </c>
+      <c r="E125">
+        <v>674.01070100000004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D126">
+        <v>13.282500000000001</v>
+      </c>
+      <c r="E126">
+        <v>974.11136899999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D127">
+        <v>12.7666</v>
+      </c>
+      <c r="E127">
+        <v>947.09717599999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D128">
+        <v>12.2018</v>
+      </c>
+      <c r="E128">
+        <v>923.16195800000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D129">
+        <v>11.615</v>
+      </c>
+      <c r="E129">
+        <v>901.42311400000006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D130">
+        <v>11.101000000000001</v>
+      </c>
+      <c r="E130">
+        <v>880.74090100000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D131">
+        <v>10.725</v>
+      </c>
+      <c r="E131">
+        <v>861.76181699999995</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D132">
+        <v>10.54</v>
+      </c>
+      <c r="E132">
+        <v>843.16641500000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D133">
+        <v>10.3904</v>
+      </c>
+      <c r="E133">
+        <v>825.13015399999995</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D134">
+        <v>10.2989</v>
+      </c>
+      <c r="E134">
+        <v>805.51402700000006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C135" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D135">
+        <v>10.2311</v>
+      </c>
+      <c r="E135">
+        <v>786.59378100000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C136" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D136">
+        <v>10.255000000000001</v>
+      </c>
+      <c r="E136">
+        <v>749.88097000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="2">
+        <v>45125</v>
+      </c>
+      <c r="C137" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D137">
+        <v>10.414</v>
+      </c>
+      <c r="E137">
+        <v>676.54027599999995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D138">
+        <v>13.275600000000001</v>
+      </c>
+      <c r="E138">
+        <v>974.60582499999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D139">
+        <v>12.765700000000001</v>
+      </c>
+      <c r="E139">
+        <v>947.55223699999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D140">
+        <v>12.2057</v>
+      </c>
+      <c r="E140">
+        <v>923.561645</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D141">
+        <v>11.637</v>
+      </c>
+      <c r="E141">
+        <v>901.64912600000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D142">
+        <v>11.143000000000001</v>
+      </c>
+      <c r="E142">
+        <v>880.70856200000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D143">
+        <v>10.778</v>
+      </c>
+      <c r="E143">
+        <v>861.50965900000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D144">
+        <v>10.6091</v>
+      </c>
+      <c r="E144">
+        <v>842.60697400000004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D145">
+        <v>10.4627</v>
+      </c>
+      <c r="E145">
+        <v>824.40582500000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D146">
+        <v>10.3771</v>
+      </c>
+      <c r="E146">
+        <v>804.57058800000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C147" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D147">
+        <v>10.301500000000001</v>
+      </c>
+      <c r="E147">
+        <v>785.66280300000005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C148" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D148">
+        <v>10.326000000000001</v>
+      </c>
+      <c r="E148">
+        <v>748.75093000000004</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C149" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D149">
+        <v>10.503399999999999</v>
+      </c>
+      <c r="E149">
+        <v>674.65123600000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D150">
+        <v>13.2699</v>
+      </c>
+      <c r="E150">
+        <v>975.09797000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D151">
+        <v>12.771599999999999</v>
+      </c>
+      <c r="E151">
+        <v>947.98205099999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D152">
+        <v>12.228999999999999</v>
+      </c>
+      <c r="E152">
+        <v>923.85211100000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D153">
+        <v>11.672599999999999</v>
+      </c>
+      <c r="E153">
+        <v>901.77377799999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D154">
+        <v>11.1966</v>
+      </c>
+      <c r="E154">
+        <v>880.56891599999994</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D155">
+        <v>10.842000000000001</v>
+      </c>
+      <c r="E155">
+        <v>861.13699699999995</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D156">
+        <v>10.674200000000001</v>
+      </c>
+      <c r="E156">
+        <v>842.10420599999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D157">
+        <v>10.535399999999999</v>
+      </c>
+      <c r="E157">
+        <v>823.68132300000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D158">
+        <v>10.462999999999999</v>
+      </c>
+      <c r="E158">
+        <v>803.51051299999995</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C159" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D159">
+        <v>10.3924</v>
+      </c>
+      <c r="E159">
+        <v>784.37978199999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C160" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D160">
+        <v>10.43</v>
+      </c>
+      <c r="E160">
+        <v>746.97056799999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="2">
+        <v>45127</v>
+      </c>
+      <c r="C161" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D161">
+        <v>10.629</v>
+      </c>
+      <c r="E161">
+        <v>671.90733999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D162">
+        <v>13.238</v>
+      </c>
+      <c r="E162">
+        <v>975.63475700000004</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D163">
+        <v>12.7225</v>
+      </c>
+      <c r="E163">
+        <v>948.61625800000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D164">
+        <v>12.155099999999999</v>
+      </c>
+      <c r="E164">
+        <v>924.69079999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D165">
+        <v>11.572699999999999</v>
+      </c>
+      <c r="E165">
+        <v>902.92219899999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D166">
+        <v>11.0938</v>
+      </c>
+      <c r="E166">
+        <v>881.91361099999995</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D167">
+        <v>10.7309</v>
+      </c>
+      <c r="E167">
+        <v>862.74105399999996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D168">
+        <v>10.5655</v>
+      </c>
+      <c r="E168">
+        <v>843.84376699999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D169">
+        <v>10.4206</v>
+      </c>
+      <c r="E169">
+        <v>825.66517599999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D170">
+        <v>10.3528</v>
+      </c>
+      <c r="E170">
+        <v>805.59043199999996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C171" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D171">
+        <v>10.271100000000001</v>
+      </c>
+      <c r="E171">
+        <v>786.80610100000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C172" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D172">
+        <v>10.308</v>
+      </c>
+      <c r="E172">
+        <v>749.69424200000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="2">
+        <v>45128</v>
+      </c>
+      <c r="C173" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D173">
+        <v>10.519</v>
+      </c>
+      <c r="E173">
+        <v>674.81151299999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D174">
+        <v>13.2347</v>
+      </c>
+      <c r="E174">
+        <v>976.12172599999997</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D175">
+        <v>12.717000000000001</v>
+      </c>
+      <c r="E175">
+        <v>949.08739300000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D176">
+        <v>12.1469</v>
+      </c>
+      <c r="E176">
+        <v>925.15772300000003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D177">
+        <v>11.578900000000001</v>
+      </c>
+      <c r="E177">
+        <v>903.26804000000004</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D178">
+        <v>11.0945</v>
+      </c>
+      <c r="E178">
+        <v>882.27525000000003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D179">
+        <v>10.732900000000001</v>
+      </c>
+      <c r="E179">
+        <v>863.06758200000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D180">
+        <v>10.5581</v>
+      </c>
+      <c r="E180">
+        <v>844.27545499999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D181">
+        <v>10.4109</v>
+      </c>
+      <c r="E181">
+        <v>826.12997800000005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D182">
+        <v>10.335900000000001</v>
+      </c>
+      <c r="E182">
+        <v>806.17583200000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C183" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D183">
+        <v>10.2498</v>
+      </c>
+      <c r="E183">
+        <v>787.48380499999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C184" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D184">
+        <v>10.2806</v>
+      </c>
+      <c r="E184">
+        <v>750.53274199999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="2">
+        <v>45131</v>
+      </c>
+      <c r="C185" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D185">
+        <v>10.4824</v>
+      </c>
+      <c r="E185">
+        <v>675.958393</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D186">
+        <v>13.202999999999999</v>
+      </c>
+      <c r="E186">
+        <v>976.65537700000004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D187">
+        <v>12.659700000000001</v>
+      </c>
+      <c r="E187">
+        <v>949.74721799999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D188">
+        <v>12.0747</v>
+      </c>
+      <c r="E188">
+        <v>925.98089400000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D189">
+        <v>11.496600000000001</v>
+      </c>
+      <c r="E189">
+        <v>904.277556</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D190">
+        <v>11.006399999999999</v>
+      </c>
+      <c r="E190">
+        <v>883.47490100000005</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D191">
+        <v>10.643000000000001</v>
+      </c>
+      <c r="E191">
+        <v>864.42756199999997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D192">
+        <v>10.4802</v>
+      </c>
+      <c r="E192">
+        <v>845.61405300000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D193">
+        <v>10.3293</v>
+      </c>
+      <c r="E193">
+        <v>827.63153399999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D194">
+        <v>10.2651</v>
+      </c>
+      <c r="E194">
+        <v>807.623245</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C195" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D195">
+        <v>10.179500000000001</v>
+      </c>
+      <c r="E195">
+        <v>789.01805300000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C196" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D196">
+        <v>10.2163</v>
+      </c>
+      <c r="E196">
+        <v>752.10777199999995</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C197" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D197">
+        <v>10.4465</v>
+      </c>
+      <c r="E197">
+        <v>677.08889199999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D198">
+        <v>13.1799</v>
+      </c>
+      <c r="E198">
+        <v>977.17331300000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D199">
+        <v>12.618</v>
+      </c>
+      <c r="E199">
+        <v>950.34734700000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D200">
+        <v>12.016500000000001</v>
+      </c>
+      <c r="E200">
+        <v>926.72263399999997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D201">
+        <v>11.431800000000001</v>
+      </c>
+      <c r="E201">
+        <v>905.15246500000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D202">
+        <v>10.9397</v>
+      </c>
+      <c r="E202">
+        <v>884.46947299999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D203">
+        <v>10.5787</v>
+      </c>
+      <c r="E203">
+        <v>865.49701100000004</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D204">
+        <v>10.426500000000001</v>
+      </c>
+      <c r="E204">
+        <v>846.63920800000005</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D205">
+        <v>10.2845</v>
+      </c>
+      <c r="E205">
+        <v>828.60053200000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D206">
+        <v>10.221500000000001</v>
+      </c>
+      <c r="E206">
+        <v>808.63416299999994</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C207" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D207">
+        <v>10.1433</v>
+      </c>
+      <c r="E207">
+        <v>789.95489399999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C208" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D208">
+        <v>10.1929</v>
+      </c>
+      <c r="E208">
+        <v>752.86552400000005</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C209" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D209">
+        <v>10.43</v>
+      </c>
+      <c r="E209">
+        <v>677.75279899999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D210">
+        <v>13.1755</v>
+      </c>
+      <c r="E210">
+        <v>977.66045699999995</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D211">
+        <v>12.615</v>
+      </c>
+      <c r="E211">
+        <v>950.80634699999996</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D212">
+        <v>12.0162</v>
+      </c>
+      <c r="E212">
+        <v>927.14168800000004</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D213">
+        <v>11.4405</v>
+      </c>
+      <c r="E213">
+        <v>905.476539</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D214">
+        <v>10.958399999999999</v>
+      </c>
+      <c r="E214">
+        <v>884.65817500000003</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D215">
+        <v>10.6135</v>
+      </c>
+      <c r="E215">
+        <v>865.45224499999995</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D216">
+        <v>10.4703</v>
+      </c>
+      <c r="E216">
+        <v>846.41020800000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D217">
+        <v>10.3323</v>
+      </c>
+      <c r="E217">
+        <v>828.23430099999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C218" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D218">
+        <v>10.265499999999999</v>
+      </c>
+      <c r="E218">
+        <v>808.24343999999996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C219" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D219">
+        <v>10.2035</v>
+      </c>
+      <c r="E219">
+        <v>789.20640800000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C220" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D220">
+        <v>10.263</v>
+      </c>
+      <c r="E220">
+        <v>751.75795300000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C221" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D221">
+        <v>10.5061</v>
+      </c>
+      <c r="E221">
+        <v>676.19275400000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D222">
+        <v>13.1997</v>
+      </c>
+      <c r="E222">
+        <v>978.10340799999994</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D223">
+        <v>12.635999999999999</v>
+      </c>
+      <c r="E223">
+        <v>951.18010200000003</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C224" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D224">
+        <v>12.037599999999999</v>
+      </c>
+      <c r="E224">
+        <v>927.44185100000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C225" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D225">
+        <v>11.4679</v>
+      </c>
+      <c r="E225">
+        <v>905.66260199999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C226" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D226">
+        <v>10.99</v>
+      </c>
+      <c r="E226">
+        <v>884.72733200000005</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C227" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D227">
+        <v>10.6493</v>
+      </c>
+      <c r="E227">
+        <v>865.39859200000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C228" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D228">
+        <v>10.504099999999999</v>
+      </c>
+      <c r="E228">
+        <v>846.31208700000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C229" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D229">
+        <v>10.3607</v>
+      </c>
+      <c r="E229">
+        <v>828.14975200000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C230" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D230">
+        <v>10.292299999999999</v>
+      </c>
+      <c r="E230">
+        <v>808.12973499999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C231" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D231">
+        <v>10.2196</v>
+      </c>
+      <c r="E231">
+        <v>789.23023999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C232" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D232">
+        <v>10.273999999999999</v>
+      </c>
+      <c r="E232">
+        <v>751.83067800000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C233" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D233">
+        <v>10.5053</v>
+      </c>
+      <c r="E233">
+        <v>676.48003200000005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C234" s="2">
+        <v>45200</v>
+      </c>
+      <c r="D234">
+        <v>13.1614</v>
+      </c>
+      <c r="E234">
+        <v>978.64257199999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C235" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D235">
+        <v>12.5974</v>
+      </c>
+      <c r="E235">
+        <v>951.76526000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C236" s="2">
+        <v>45383</v>
+      </c>
+      <c r="D236">
+        <v>12.002000000000001</v>
+      </c>
+      <c r="E236">
+        <v>928.054531</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C237" s="2">
+        <v>45474</v>
+      </c>
+      <c r="D237">
+        <v>11.426299999999999</v>
+      </c>
+      <c r="E237">
+        <v>906.36025099999995</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C238" s="2">
+        <v>45566</v>
+      </c>
+      <c r="D238">
+        <v>10.944800000000001</v>
+      </c>
+      <c r="E238">
+        <v>885.51562200000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C239" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D239">
+        <v>10.606</v>
+      </c>
+      <c r="E239">
+        <v>866.22904900000003</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C240" s="2">
+        <v>45748</v>
+      </c>
+      <c r="D240">
+        <v>10.455500000000001</v>
+      </c>
+      <c r="E240">
+        <v>847.26855799999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C241" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D241">
+        <v>10.314</v>
+      </c>
+      <c r="E241">
+        <v>829.14335800000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C242" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D242">
+        <v>10.240399999999999</v>
+      </c>
+      <c r="E242">
+        <v>809.27033900000004</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C243" s="2">
+        <v>46023</v>
+      </c>
+      <c r="D243">
+        <v>10.164</v>
+      </c>
+      <c r="E243">
+        <v>790.50313000000006</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C244" s="2">
+        <v>46204</v>
+      </c>
+      <c r="D244">
+        <v>10.207000000000001</v>
+      </c>
+      <c r="E244">
+        <v>753.45511699999997</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C245" s="2">
+        <v>46569</v>
+      </c>
+      <c r="D245">
+        <v>10.438800000000001</v>
+      </c>
+      <c r="E245">
+        <v>678.342445</v>
       </c>
     </row>
   </sheetData>
